--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/采矿业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/采矿业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>651830.6009</v>
+        <v>5334380.66874354</v>
       </c>
       <c r="C2" t="n">
-        <v>678005.285</v>
+        <v>10003462.6740187</v>
       </c>
       <c r="D2" t="n">
-        <v>422433.5974</v>
+        <v>1624528.38870215</v>
       </c>
       <c r="E2" t="n">
-        <v>3685135</v>
+        <v>19323444.3108466</v>
       </c>
       <c r="F2" t="n">
-        <v>150562.8</v>
+        <v>424226.68156344</v>
       </c>
       <c r="G2" t="n">
-        <v>706873.74</v>
+        <v>2219226.46607589</v>
       </c>
       <c r="H2" t="n">
-        <v>1829778</v>
+        <v>10341286.7610311</v>
       </c>
       <c r="I2" t="n">
-        <v>6928553.2</v>
+        <v>48501750.8062514</v>
       </c>
       <c r="J2" t="n">
-        <v>2863437.2501</v>
+        <v>15505792.1317874</v>
       </c>
       <c r="K2" t="n">
-        <v>5895331</v>
+        <v>36087853.582109</v>
       </c>
       <c r="L2" t="n">
-        <v>557093.6</v>
+        <v>1955509.4421098</v>
       </c>
       <c r="M2" t="n">
-        <v>2207226.074</v>
+        <v>21594219.6520494</v>
       </c>
       <c r="N2" t="n">
-        <v>34038339.5884</v>
+        <v>266477379.487807</v>
       </c>
       <c r="O2" t="n">
-        <v>16610583.8623444</v>
+        <v>75188342.8272973</v>
       </c>
       <c r="P2" t="n">
-        <v>9589377.07599627</v>
+        <v>22985590.8707378</v>
       </c>
       <c r="Q2" t="n">
-        <v>46799124.1454848</v>
+        <v>219915209.347015</v>
       </c>
       <c r="R2" t="n">
-        <v>80837463.7338849</v>
+        <v>486392588.834822</v>
       </c>
       <c r="S2" t="n">
-        <v>3231715.081</v>
+        <v>56380903.367471</v>
       </c>
       <c r="T2" t="n">
-        <v>6777065.29210484</v>
+        <v>52592494.3115055</v>
       </c>
       <c r="U2" t="n">
-        <v>13822097.9150393</v>
+        <v>69148781.3374745</v>
       </c>
       <c r="V2" t="n">
-        <v>2574132.3</v>
+        <v>23565572.1139719</v>
       </c>
       <c r="W2" t="n">
-        <v>1023784</v>
+        <v>6538705.47626668</v>
       </c>
       <c r="X2" t="n">
-        <v>611921.9</v>
+        <v>6152180.21128667</v>
       </c>
       <c r="Y2" t="n">
-        <v>20526.16</v>
+        <v>924336.753522265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>981772.003355493</v>
+        <v>6439323.59967108</v>
       </c>
       <c r="C3" t="n">
-        <v>2232664.2494907</v>
+        <v>9854409.42385187</v>
       </c>
       <c r="D3" t="n">
-        <v>400481.800661951</v>
+        <v>250030.213748122</v>
       </c>
       <c r="E3" t="n">
-        <v>3577632.93088739</v>
+        <v>19062946.4696015</v>
       </c>
       <c r="F3" t="n">
-        <v>140574.59535562</v>
+        <v>1254026.1146479</v>
       </c>
       <c r="G3" t="n">
-        <v>2002090.15426227</v>
+        <v>9324381.213192729</v>
       </c>
       <c r="H3" t="n">
-        <v>3175036.59247216</v>
+        <v>9537624.45098057</v>
       </c>
       <c r="I3" t="n">
-        <v>7306034.09428575</v>
+        <v>32333762.7982411</v>
       </c>
       <c r="J3" t="n">
-        <v>2673373.93855949</v>
+        <v>15425891.0250713</v>
       </c>
       <c r="K3" t="n">
-        <v>6675984.92488011</v>
+        <v>31288295.5211431</v>
       </c>
       <c r="L3" t="n">
-        <v>518175.449581328</v>
+        <v>1626931.53892444</v>
       </c>
       <c r="M3" t="n">
-        <v>3817728.96888204</v>
+        <v>13882983.1590465</v>
       </c>
       <c r="N3" t="n">
-        <v>43505927.9113268</v>
+        <v>273447605.336234</v>
       </c>
       <c r="O3" t="n">
-        <v>25695041.0602965</v>
+        <v>104384851.247174</v>
       </c>
       <c r="P3" t="n">
-        <v>7116017.09135997</v>
+        <v>27440588.1416833</v>
       </c>
       <c r="Q3" t="n">
-        <v>59665963.1128279</v>
+        <v>262533363.664802</v>
       </c>
       <c r="R3" t="n">
-        <v>103171891.024155</v>
+        <v>535980969.001036</v>
       </c>
       <c r="S3" t="n">
-        <v>3522633.10308656</v>
+        <v>71600276.61865459</v>
       </c>
       <c r="T3" t="n">
-        <v>6513462.74423448</v>
+        <v>61720316.8490219</v>
       </c>
       <c r="U3" t="n">
-        <v>20341442.2169369</v>
+        <v>68987607.4269231</v>
       </c>
       <c r="V3" t="n">
-        <v>4127088.87733156</v>
+        <v>27453454.8543279</v>
       </c>
       <c r="W3" t="n">
-        <v>1612781.65171508</v>
+        <v>18437785.2036695</v>
       </c>
       <c r="X3" t="n">
-        <v>717724.9370603909</v>
+        <v>3338774.27604086</v>
       </c>
       <c r="Y3" t="n">
-        <v>24149.6394589032</v>
+        <v>2336708.85542054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2173046.66232174</v>
+        <v>9403208.36398018</v>
       </c>
       <c r="C4" t="n">
-        <v>5819133.07973541</v>
+        <v>15384067.5291597</v>
       </c>
       <c r="D4" t="n">
-        <v>1135981.18748277</v>
+        <v>306044.311779367</v>
       </c>
       <c r="E4" t="n">
-        <v>7833700.55901591</v>
+        <v>24603968.8443032</v>
       </c>
       <c r="F4" t="n">
-        <v>415904.452870559</v>
+        <v>1857212.53746727</v>
       </c>
       <c r="G4" t="n">
-        <v>2062784.97586636</v>
+        <v>19349353.2122193</v>
       </c>
       <c r="H4" t="n">
-        <v>5897723.13709805</v>
+        <v>16332616.2330384</v>
       </c>
       <c r="I4" t="n">
-        <v>15308388.6797665</v>
+        <v>49128891.0100442</v>
       </c>
       <c r="J4" t="n">
-        <v>7485029.35938285</v>
+        <v>17202778.2439596</v>
       </c>
       <c r="K4" t="n">
-        <v>20037237.5757115</v>
+        <v>32986096.4801104</v>
       </c>
       <c r="L4" t="n">
-        <v>1082427.8070323</v>
+        <v>2943791.82273361</v>
       </c>
       <c r="M4" t="n">
-        <v>10692403.0497912</v>
+        <v>20870096.9541258</v>
       </c>
       <c r="N4" t="n">
-        <v>103963529.609734</v>
+        <v>356032450.649847</v>
       </c>
       <c r="O4" t="n">
-        <v>20677243.705614</v>
+        <v>75106089.0896863</v>
       </c>
       <c r="P4" t="n">
-        <v>10777151.7946254</v>
+        <v>32136161.257862</v>
       </c>
       <c r="Q4" t="n">
-        <v>90739804.18363561</v>
+        <v>182319658.784344</v>
       </c>
       <c r="R4" t="n">
-        <v>194703333.793369</v>
+        <v>538352109.434191</v>
       </c>
       <c r="S4" t="n">
-        <v>8864077.324656829</v>
+        <v>79760272.52440999</v>
       </c>
       <c r="T4" t="n">
-        <v>16156095.2862239</v>
+        <v>45990519.8262861</v>
       </c>
       <c r="U4" t="n">
-        <v>43129313.3971723</v>
+        <v>29086888.6105096</v>
       </c>
       <c r="V4" t="n">
-        <v>10051826.0651046</v>
+        <v>28538607.0017999</v>
       </c>
       <c r="W4" t="n">
-        <v>2544852.48766359</v>
+        <v>28994895.4978513</v>
       </c>
       <c r="X4" t="n">
-        <v>2506080.96017586</v>
+        <v>4311986.96284393</v>
       </c>
       <c r="Y4" t="n">
-        <v>52932.2460578583</v>
+        <v>4058563.12002117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3471051.26098742</v>
+        <v>996960.314615462</v>
       </c>
       <c r="C5" t="n">
-        <v>7053680.48807552</v>
+        <v>19503474.4340212</v>
       </c>
       <c r="D5" t="n">
-        <v>781272.107904424</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11175155.0761254</v>
-      </c>
+        <v>247530.68901371</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>270149.343644285</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1114952.71937044</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6520456.88359375</v>
-      </c>
+        <v>207318.716865227</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>28102981.238966</v>
+        <v>29940456.7398894</v>
       </c>
       <c r="J5" t="n">
-        <v>10961386.2414133</v>
+        <v>33965648.2266994</v>
       </c>
       <c r="K5" t="n">
-        <v>23899288.3670494</v>
+        <v>26114229.0904301</v>
       </c>
       <c r="L5" t="n">
-        <v>1365185.82555802</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12809659.6275046</v>
-      </c>
+        <v>2605135.00435136</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>153811072.424185</v>
+        <v>258872682.770458</v>
       </c>
       <c r="O5" t="n">
-        <v>48631486.8169787</v>
+        <v>99497762.7408928</v>
       </c>
       <c r="P5" t="n">
-        <v>14993059.228558</v>
+        <v>43254936.2060489</v>
       </c>
       <c r="Q5" t="n">
-        <v>137997922.069656</v>
+        <v>282990279.178995</v>
       </c>
       <c r="R5" t="n">
-        <v>291808994.493842</v>
+        <v>541862961.949453</v>
       </c>
       <c r="S5" t="n">
-        <v>21882623.2562819</v>
+        <v>69460690.15943269</v>
       </c>
       <c r="T5" t="n">
-        <v>25163430.62641</v>
+        <v>89998176.6688519</v>
       </c>
       <c r="U5" t="n">
-        <v>49209945.3977095</v>
+        <v>50239403.5632008</v>
       </c>
       <c r="V5" t="n">
-        <v>15594004.1369366</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4354545.96945068</v>
-      </c>
+        <v>20384308.3464116</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>3809133.26642124</v>
+        <v>2693569.8132782</v>
       </c>
       <c r="Y5" t="n">
-        <v>645546.614902487</v>
+        <v>1742071.57264256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5334380.66874354</v>
+        <v>885267.012121088</v>
       </c>
       <c r="C6" t="n">
-        <v>10003462.6740187</v>
+        <v>19480299.9344952</v>
       </c>
       <c r="D6" t="n">
-        <v>1624528.38870215</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19323444.3108466</v>
-      </c>
+        <v>236206.477586407</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>424226.68156344</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2219226.46607589</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10341286.7610311</v>
-      </c>
+        <v>210676.269525962</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>48501750.8062514</v>
+        <v>26112533.6718961</v>
       </c>
       <c r="J6" t="n">
-        <v>15505792.1317874</v>
+        <v>29751682.6629739</v>
       </c>
       <c r="K6" t="n">
-        <v>36087853.582109</v>
+        <v>27748825.9729028</v>
       </c>
       <c r="L6" t="n">
-        <v>1955509.4421098</v>
-      </c>
-      <c r="M6" t="n">
-        <v>21594219.6520494</v>
-      </c>
+        <v>2440045.48769027</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>266477379.487807</v>
+        <v>255962749.023528</v>
       </c>
       <c r="O6" t="n">
-        <v>75188342.8272973</v>
+        <v>103059189.810616</v>
       </c>
       <c r="P6" t="n">
-        <v>22985590.8707378</v>
+        <v>50718960.9336056</v>
       </c>
       <c r="Q6" t="n">
-        <v>219915209.347015</v>
+        <v>300570803.916466</v>
       </c>
       <c r="R6" t="n">
-        <v>486392588.834822</v>
+        <v>556533552.939994</v>
       </c>
       <c r="S6" t="n">
-        <v>56380903.367471</v>
+        <v>70421130.0515859</v>
       </c>
       <c r="T6" t="n">
-        <v>52592494.3115055</v>
+        <v>80453972.94889089</v>
       </c>
       <c r="U6" t="n">
-        <v>69148781.3374745</v>
+        <v>66338680.2233538</v>
       </c>
       <c r="V6" t="n">
-        <v>23565572.1139719</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6538705.47626668</v>
-      </c>
+        <v>21225373.0678965</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>6152180.21128667</v>
+        <v>2987635.5651001</v>
       </c>
       <c r="Y6" t="n">
-        <v>924336.753522265</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6439323.59967108</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9854409.42385187</v>
-      </c>
-      <c r="D7" t="n">
-        <v>250030.213748122</v>
-      </c>
-      <c r="E7" t="n">
-        <v>19062946.4696015</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1254026.1146479</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9324381.213192729</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9537624.45098057</v>
-      </c>
-      <c r="I7" t="n">
-        <v>32333762.7982411</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15425891.0250713</v>
-      </c>
-      <c r="K7" t="n">
-        <v>31288295.5211431</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1626931.53892444</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13882983.1590465</v>
-      </c>
-      <c r="N7" t="n">
-        <v>273447605.336234</v>
-      </c>
-      <c r="O7" t="n">
-        <v>104384851.247174</v>
-      </c>
-      <c r="P7" t="n">
-        <v>27440588.1416833</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>262533363.664802</v>
-      </c>
-      <c r="R7" t="n">
-        <v>535980969.001036</v>
-      </c>
-      <c r="S7" t="n">
-        <v>71600276.61865459</v>
-      </c>
-      <c r="T7" t="n">
-        <v>61720316.8490219</v>
-      </c>
-      <c r="U7" t="n">
-        <v>68987607.4269231</v>
-      </c>
-      <c r="V7" t="n">
-        <v>27453454.8543279</v>
-      </c>
-      <c r="W7" t="n">
-        <v>18437785.2036695</v>
-      </c>
-      <c r="X7" t="n">
-        <v>3338774.27604086</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2336708.85542054</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9403208.36398018</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15384067.5291597</v>
-      </c>
-      <c r="D8" t="n">
-        <v>306044.311779367</v>
-      </c>
-      <c r="E8" t="n">
-        <v>24603968.8443032</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1857212.53746727</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19349353.2122193</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16332616.2330384</v>
-      </c>
-      <c r="I8" t="n">
-        <v>49128891.0100442</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17202778.2439596</v>
-      </c>
-      <c r="K8" t="n">
-        <v>32986096.4801104</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2943791.82273361</v>
-      </c>
-      <c r="M8" t="n">
-        <v>20870096.9541258</v>
-      </c>
-      <c r="N8" t="n">
-        <v>356032450.649847</v>
-      </c>
-      <c r="O8" t="n">
-        <v>75106089.0896863</v>
-      </c>
-      <c r="P8" t="n">
-        <v>32136161.257862</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>182319658.784344</v>
-      </c>
-      <c r="R8" t="n">
-        <v>538352109.434191</v>
-      </c>
-      <c r="S8" t="n">
-        <v>79760272.52440999</v>
-      </c>
-      <c r="T8" t="n">
-        <v>45990519.8262861</v>
-      </c>
-      <c r="U8" t="n">
-        <v>29086888.6105096</v>
-      </c>
-      <c r="V8" t="n">
-        <v>28538607.0017999</v>
-      </c>
-      <c r="W8" t="n">
-        <v>28994895.4978513</v>
-      </c>
-      <c r="X8" t="n">
-        <v>4311986.96284393</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4058563.12002117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>996960.314615462</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19503474.4340212</v>
-      </c>
-      <c r="D9" t="n">
-        <v>247530.68901371</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>207318.716865227</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>29940456.7398894</v>
-      </c>
-      <c r="J9" t="n">
-        <v>33965648.2266994</v>
-      </c>
-      <c r="K9" t="n">
-        <v>26114229.0904301</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2605135.00435136</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>258872682.770458</v>
-      </c>
-      <c r="O9" t="n">
-        <v>99497762.7408928</v>
-      </c>
-      <c r="P9" t="n">
-        <v>43254936.2060489</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>282990279.178995</v>
-      </c>
-      <c r="R9" t="n">
-        <v>541862961.949453</v>
-      </c>
-      <c r="S9" t="n">
-        <v>69460690.15943269</v>
-      </c>
-      <c r="T9" t="n">
-        <v>89998176.6688519</v>
-      </c>
-      <c r="U9" t="n">
-        <v>50239403.5632008</v>
-      </c>
-      <c r="V9" t="n">
-        <v>20384308.3464116</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>2693569.8132782</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1742071.57264256</v>
+        <v>1450081.4746656</v>
       </c>
     </row>
   </sheetData>
